--- a/Marathi/agrovon-esakal-wildlife/Data Excels (Main Data, Shortened Excel)/agrovon-esakal-wildlife-marathi-cleaned.xlsx
+++ b/Marathi/agrovon-esakal-wildlife/Data Excels (Main Data, Shortened Excel)/agrovon-esakal-wildlife-marathi-cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI-ML\Data-Scraping-Wildlife-care\Marathi\agrovon-esakal-wildlife\Data Excels (Main Data, Shortened Excel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4572C3B-B1E8-4C32-8690-EB0B10ED26CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6219F0-FA0F-47AB-AAF6-0ADF1590C728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1877,7 +1877,7 @@
   <dimension ref="A1:I77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H11 H13:H25 H27:H35 H37:H46 H48:H59 H61:H70 H72:H81 H83:H91 H93:H100 H102:H108 H110:H116 H118:H128 H130:H137 H139:H150 H152:H158 H160:H166 H168:H171 H173:H178 H180:H185 H187:H193 H195:H199 H201:H204 H206:H212 H214:H220 H222:H226 H228:H230 H232:H233 H235 H237:H242 H244:H250 H252:H255 H257:H260 H262:H266 H268 H270:H272 H274:H277 H279:H283 H285 H287:H290 H292 H294:H298 H300:H304 H306:H308 H310:H312 H314 H316:H317 H319 H321:H324 H326:H329 H331:H335 H337:H341 H343:H363 H365:H370 H372:H378 H380:H384 H386:H396 H398:H404 H406:H410 H412:H416 H418:H428 H430:H435 H437:H441 H443:H448 H450:H454 H456:H461 H463:H474 H476:H480 H482:H487 H489:H498 H500:H502 H504:H512 H514:H519 H521:H525 H527:H536 H538:H551 H553:H557"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
